--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-16_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-16_end.xlsx
@@ -3252,11 +3252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “Ever fight is to the death. Life on the line in every fight, for life will return to the blood, and live forever in another body...”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Vanguard operators, keep up the pressure... fall back. His own body will unleash the “cannibalism” ritual, as if he himself is a gigantic witchcraft device...
+    <t xml:space="preserve">[name="Kal'tsit"]  'Ever fight is to the death. Life on the line in every fight, for life will return to the blood, and live forever in another body...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Vanguard operators, keep up the pressure... fall back. His own body will unleash the 'cannibalism' ritual, as if he himself is a gigantic witchcraft device...
 </t>
   </si>
   <si>
@@ -4016,15 +4016,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “...I hereby witness a Sarkaz. Buldrokkas'tee, Wendigo of Kazdel, betrayed neither flesh nor blood, disgraced not his tribe.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “He leaves his body, with his life, under the light...”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “...And his soul returns to the warm blood of the Wendigos.”
+    <t xml:space="preserve">[name="Kal'tsit"]  '...I hereby witness a Sarkaz. Buldrokkas'tee, Wendigo of Kazdel, betrayed neither flesh nor blood, disgraced not his tribe.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  'He leaves his body, with his life, under the light...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  '...And his soul returns to the warm blood of the Wendigos.'
 </t>
   </si>
   <si>
@@ -4292,7 +4292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Hey, no hitting. You’re going to hit me no matter what I say, huh? 
+    <t xml:space="preserve">[name="Hoshiguma"]  Hey, no hitting. You’re going to hit me no matter what I say, huh? 
 </t>
   </si>
   <si>
@@ -4384,7 +4384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  No. 
+    <t xml:space="preserve">[name="Patriot"]  No. 
 </t>
   </si>
   <si>
@@ -4580,7 +4580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  That... Reunion, tyrant, fate... You will... overthrow them. 
+    <t xml:space="preserve">[name="Patriot"]  That... Reunion, tyrant, fate... You will... overthrow them. 
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-16_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-16_end.xlsx
@@ -3208,7 +3208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Sniper operators, keep up the fire on his torso. His armor is already severely damaged. Casters, keep the other guerrilla fighters under control. Don’t let them interfere.
+    <t xml:space="preserve">[name="Kal'tsit"]  Sniper operators, keep up the fire on his torso. His armor is already severely damaged. Casters, keep the other guerrilla fighters under control. Don't let them interfere.
 </t>
   </si>
   <si>
@@ -3216,11 +3216,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Pull back, Mon3tr. You don’t have advantage in close quarters! You can’t stop him now!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  The sword is slipping! Even if... I try to hold him, I can’t move him. He feels like a landslide...
+    <t xml:space="preserve">[name="Kal'tsit"]  Pull back, Mon3tr. You don't have advantage in close quarters! You can't stop him now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  The sword is slipping! Even if... I try to hold him, I can't move him. He feels like a landslide...
 </t>
   </si>
   <si>
@@ -3244,7 +3244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Even that wasn’t enough to destroy him...
+    <t xml:space="preserve">[name="Kal'tsit"]  Even that wasn't enough to destroy him...
 </t>
   </si>
   <si>
@@ -3320,43 +3320,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wife"]  Don’t be sad, my love...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  You won’t remarry? Don’t be like that, dear...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  *Sigh*, but you won’t agree with my yapping. You’re stubborn as a stone. Have I ever convinced you of anything?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  You’ll keep fighting, won’t  you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  Promise me, Buldrokkas'tee, promise me you won’t die in battle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  My only hope is that you don’t suffer any more. Just think, after I’m gone, you’ll still have our family. Look, our little Gro.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  He’s so cute when he’s sleeping.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  With his two little red horns, that still haven’t hardened...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  This is life. It’s the continuation of my life. A child is the continuation of all the life in our world.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  I know you won’t eat me. I know how much you hate Wendigo traditions.
+    <t xml:space="preserve">[name="Wife"]  Don't be sad, my love...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  You won't remarry? Don't be like that, dear...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  *Sigh*, but you won't agree with my yapping. You're stubborn as a stone. Have I ever convinced you of anything?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  You'll keep fighting, won't  you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  Promise me, Buldrokkas'tee, promise me you won't die in battle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  My only hope is that you don't suffer any more. Just think, after I'm gone, you'll still have our family. Look, our little Gro.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  He's so cute when he's sleeping.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  With his two little red horns, that still haven't hardened...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  This is life. It's the continuation of my life. A child is the continuation of all the life in our world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  I know you won't eat me. I know how much you hate Wendigo traditions.
 </t>
   </si>
   <si>
@@ -3368,11 +3368,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wife"]  You’re withering away. All that sadness is going to destroy you. Our son needs you to take care of him. Lingering here will be the death of you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  ...No, Buldrokkas'tee. You’re not a cold-blooded monster.
+    <t xml:space="preserve">[name="Wife"]  You're withering away. All that sadness is going to destroy you. Our son needs you to take care of him. Lingering here will be the death of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  ...No, Buldrokkas'tee. You're not a cold-blooded monster.
 </t>
   </si>
   <si>
@@ -3380,31 +3380,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wife"]  You look surprised... Don’t be. I love you, just as tenderly and generously as you loved me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  Buldrokkas'tee, my love... the family you’ll come to have, is also my family.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wife"]  That’s how I love you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  Helen, I don’t deserve your love.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I couldn’t protect you. I couldn’t, keep my word.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  My family, I couldn’t protect... any of them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I don’t deserve... love.
+    <t xml:space="preserve">[name="Wife"]  You look surprised... Don't be. I love you, just as tenderly and generously as you loved me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  Buldrokkas'tee, my love... the family you'll come to have, is also my family.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wife"]  That's how I love you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Helen, I don't deserve your love.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I couldn't protect you. I couldn't, keep my word.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  My family, I couldn't protect... any of them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I don't deserve... love.
 </t>
   </si>
   <si>
@@ -3444,15 +3444,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Son"]  Father, I’m begging you! Don’t stand with the Empire!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Son"]  Orders? The Empire’s orders are ridiculous!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Son"]  No, I’m sorry, Father... I wasn’t mocking you. I would never.
+    <t xml:space="preserve">[name="Son"]  Father, I'm begging you! Don't stand with the Empire!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Son"]  Orders? The Empire's orders are ridiculous!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Son"]  No, I'm sorry, Father... I wasn't mocking you. I would never.
 </t>
   </si>
   <si>
@@ -3464,11 +3464,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Son"]  Didn’t you like his poetry too? Didn’t you read them aloud at night and shed tears of joy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Son"]  He’s dead! He’s been sent down the dark path of death and left us forever, never to return!
+    <t xml:space="preserve">[name="Son"]  Didn't you like his poetry too? Didn't you read them aloud at night and shed tears of joy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Son"]  He's dead! He's been sent down the dark path of death and left us forever, never to return!
 </t>
   </si>
   <si>
@@ -3476,7 +3476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Son"]  The Empire’s so-called infected decree is just a wicked intrusion into our hearts!
+    <t xml:space="preserve">[name="Son"]  The Empire's so-called infected decree is just a wicked intrusion into our hearts!
 </t>
   </si>
   <si>
@@ -3484,7 +3484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Son"]  Did the soldiers of the Empire win the Emperor’s favor with this disgrace? It’s ridiculous!
+    <t xml:space="preserve">[name="Son"]  Did the soldiers of the Empire win the Emperor's favor with this disgrace? It's ridiculous!
 </t>
   </si>
   <si>
@@ -3496,27 +3496,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Son"]  We’re Sarkaz... who’s more susceptible to Oripathy than Sarkaz?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Son"]  Maybe when one of us gets infected, you’ll know how absurd these crimes are!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Son"]  Maybe then you’ll leave your path of bloodshed and take a walk down the boulevard of mercy!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Son"]  Fine, fine, Father...! You’re the one and only Buldrokkas'tee! If Oripathy won’t haunt a tough soldier like you, it’ll just have to creep up on me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Son"]  When it’s hovering over my corpse laughing at you, you’ll finally realize your mistake!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Son"]  Don’t let yourself regret it, Father!
+    <t xml:space="preserve">[name="Son"]  We're Sarkaz... who's more susceptible to Oripathy than Sarkaz?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Son"]  Maybe when one of us gets infected, you'll know how absurd these crimes are!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Son"]  Maybe then you'll leave your path of bloodshed and take a walk down the boulevard of mercy!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Son"]  Fine, fine, Father...! You're the one and only Buldrokkas'tee! If Oripathy won't haunt a tough soldier like you, it'll just have to creep up on me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Son"]  When it's hovering over my corpse laughing at you, you'll finally realize your mistake!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Son"]  Don't let yourself regret it, Father!
 </t>
   </si>
   <si>
@@ -3528,7 +3528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  Father, to the end, had eyes, and was blind. Father couldn’t walk, the right path.
+    <t xml:space="preserve">[name="Patriot"]  Father, to the end, had eyes, and was blind. Father couldn't walk, the right path.
 </t>
   </si>
   <si>
@@ -3544,7 +3544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  Father... doesn’t deserve, to be your father.
+    <t xml:space="preserve">[name="Patriot"]  Father... doesn't deserve, to be your father.
 </t>
   </si>
   <si>
@@ -3576,7 +3576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  You won’t answer. Her Majesty’s death, to this day, is a mystery.
+    <t xml:space="preserve">[name="Patriot"]  You won't answer. Her Majesty's death, to this day, is a mystery.
 </t>
   </si>
   <si>
@@ -3592,15 +3592,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Daughter"]  We’re not related, though? It’s kind of weird to call you dad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  ...You don’t look so good?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  No way! It’s not because... my brothers and sisters are scared of me!
+    <t xml:space="preserve">[name="Daughter"]  We're not related, though? It's kind of weird to call you dad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  ...You don't look so good?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  No way! It's not because... my brothers and sisters are scared of me!
 </t>
   </si>
   <si>
@@ -3608,19 +3608,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Daughter"]  If you do, I’ll even call you daddy!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  Huh? Threat-en? I don’t know what that word means. You didn’t teach me yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  *Sigh*, you told me my brother learned everything really fast. But I can only go step by step... Where’s my brother now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  Huh?! Why are you hugging me all of a sudden? You’ll freeze!
+    <t xml:space="preserve">[name="Daughter"]  If you do, I'll even call you daddy!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  Huh? Threat-en? I don't know what that word means. You didn't teach me yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  *Sigh*, you told me my brother learned everything really fast. But I can only go step by step... Where's my brother now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  Huh?! Why are you hugging me all of a sudden? You'll freeze!
 </t>
   </si>
   <si>
@@ -3628,23 +3628,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Daughter"]  No? Everyone says you don’t have blood or tears. Does that mean you don’t cry?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  But you’re definitely crying, Daddy...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  ...I don’t know what I was saying! I’m sorry! Daddy, are you crying because you’re freezing and it hurts?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  Daddy! Daddy! I won’t say things like that anymore! And, and when I grow up... I’ll make a medicine for you so you won’t get frozen!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  Then you won’t cry anymore, right? I’m gonna grow up really fast!
+    <t xml:space="preserve">[name="Daughter"]  No? Everyone says you don't have blood or tears. Does that mean you don't cry?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  But you're definitely crying, Daddy...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  ...I don't know what I was saying! I'm sorry! Daddy, are you crying because you're freezing and it hurts?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  Daddy! Daddy! I won't say things like that anymore! And, and when I grow up... I'll make a medicine for you so you won't get frozen!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  Then you won't cry anymore, right? I'm gonna grow up really fast!
 </t>
   </si>
   <si>
@@ -3652,19 +3652,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Daughter"]  Oh, you mean my brothers and sisters, and me, and you, we’re all a family? Even my brother who isn’t here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  Um... then, Daddy, you’re everyone’s daddy!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  Then I’ll learn from you, and avenge grandma! I’ll kill all the bad people who bully us!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  I can’t say that?
+    <t xml:space="preserve">[name="Daughter"]  Oh, you mean my brothers and sisters, and me, and you, we're all a family? Even my brother who isn't here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  Um... then, Daddy, you're everyone's daddy!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  Then I'll learn from you, and avenge grandma! I'll kill all the bad people who bully us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  I can't say that?
 </t>
   </si>
   <si>
@@ -3672,11 +3672,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Daughter"]  ...What do you mean you don’t want me to become like you? Aren’t you a good guy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  How can my daddy be a bad guy?! That doesn’t make any sense! Tell me! How are you a bad guy?!
+    <t xml:space="preserve">[name="Daughter"]  ...What do you mean you don't want me to become like you? Aren't you a good guy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  How can my daddy be a bad guy?! That doesn't make any sense! Tell me! How are you a bad guy?!
 </t>
   </si>
   <si>
@@ -3684,7 +3684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Daughter"]  If I can’t be like you, can I go to the city?
+    <t xml:space="preserve">[name="Daughter"]  If I can't be like you, can I go to the city?
 </t>
   </si>
   <si>
@@ -3696,11 +3696,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Daughter"]  So I can’t eat it if I’m like you...? Oh...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Daughter"]  I don’t get it.
+    <t xml:space="preserve">[name="Daughter"]  So I can't eat it if I'm like you...? Oh...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Daughter"]  I don't get it.
 </t>
   </si>
   <si>
@@ -3708,7 +3708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Daughter"]  I guess, it doesn’t matter, I could be a good guy or a bad guy.
+    <t xml:space="preserve">[name="Daughter"]  I guess, it doesn't matter, I could be a good guy or a bad guy.
 </t>
   </si>
   <si>
@@ -3716,7 +3716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Daughter"]  You’re my family, I know. My closest family.
+    <t xml:space="preserve">[name="Daughter"]  You're my family, I know. My closest family.
 </t>
   </si>
   <si>
@@ -3728,11 +3728,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  My daughter... Father, couldn’t, do anything, for you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I couldn’t, do anything.
+    <t xml:space="preserve">[name="Patriot"]  My daughter... Father, couldn't, do anything, for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I couldn't, do anything.
 </t>
   </si>
   <si>
@@ -3752,7 +3752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  Cautus girl. You are, Rhodes Island’s leader.
+    <t xml:space="preserve">[name="Patriot"]  Cautus girl. You are, Rhodes Island's leader.
 </t>
   </si>
   <si>
@@ -3772,11 +3772,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  You want to stop, the core city. But you can’t, defeat me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Don’t touch Amiya!
+    <t xml:space="preserve">[name="Patriot"]  You want to stop, the core city. But you can't, defeat me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Don't touch Amiya!
 </t>
   </si>
   <si>
@@ -3792,7 +3792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The huge monster doesn’t even flinch. He keeps hulking forward.
+    <t xml:space="preserve">The huge monster doesn't even flinch. He keeps hulking forward.
 </t>
   </si>
   <si>
@@ -3804,7 +3804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  ...You won’t get away...!
+    <t xml:space="preserve">[name="Rosmontis"]  ...You won't get away...!
 </t>
   </si>
   <si>
@@ -3820,11 +3820,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  You’re at your limit, I know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Because you’re not a caster like Miss FrostNova...
+    <t xml:space="preserve">[name="Amiya"]  You're at your limit, I know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Because you're not a caster like Miss FrostNova...
 </t>
   </si>
   <si>
@@ -3832,15 +3832,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I’ve seen everything... in these Arts. Everything of you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...It’s enough, Mr. Patriot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s enough.
+    <t xml:space="preserve">[name="Amiya"]  I've seen everything... in these Arts. Everything of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...It's enough, Mr. Patriot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's enough.
 </t>
   </si>
   <si>
@@ -3848,11 +3848,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  This strike, it’s precise.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I can’t, move, anymore.
+    <t xml:space="preserve">[name="Patriot"]  This strike, it's precise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I can't, move, anymore.
 </t>
   </si>
   <si>
@@ -3880,7 +3880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  (My life, take it. Use it. It’s your prize, as the victors.)
+    <t xml:space="preserve">[name="Patriot"]  (My life, take it. Use it. It's your prize, as the victors.)
 </t>
   </si>
   <si>
@@ -3928,7 +3928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  Because I don’t trust you.
+    <t xml:space="preserve">[name="Patriot"]  Because I don't trust you.
 </t>
   </si>
   <si>
@@ -3940,7 +3940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I don’t. I wait for results.
+    <t xml:space="preserve">[name="Patriot"]  I don't. I wait for results.
 </t>
   </si>
   <si>
@@ -3964,11 +3964,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Cabin temperature is increasing rapidly! It’s an energy leak!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Wait, it’s changing shape! Why is it progressing like this after fourteen hours?
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Cabin temperature is increasing rapidly! It's an energy leak!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Wait, it's changing shape! Why is it progressing like this after fourteen hours?
 </t>
   </si>
   <si>
@@ -3976,7 +3976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Dr. {@nickname}? Did we lose someone in the battle for Lungmen? Who’s being processed?
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Dr. {@nickname}? Did we lose someone in the battle for Lungmen? Who's being processed?
 </t>
   </si>
   <si>
@@ -3992,7 +3992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m listening, Buldrokkas'tee.
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm listening, Buldrokkas'tee.
 </t>
   </si>
   <si>
@@ -4008,7 +4008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...I don’t know if I’m qualified.
+    <t xml:space="preserve">[name="Kal'tsit"]  ...I don't know if I'm qualified.
 </t>
   </si>
   <si>
@@ -4064,7 +4064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  Ha. So that’s how it is. Ha.
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  Ha. So that's how it is. Ha.
 </t>
   </si>
   <si>
@@ -4072,19 +4072,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  You think we’re just going to stand here and let you kill us?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You can’t fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  If there’s an afterlife, take your revenge there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  We’re supposed to give up, just because we know we’re going to die?
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  You think we're just going to stand here and let you kill us?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You can't fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  If there's an afterlife, take your revenge there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  We're supposed to give up, just because we know we're going to die?
 </t>
   </si>
   <si>
@@ -4092,7 +4092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mephisto"]  Don’t kill them.
+    <t xml:space="preserve">[name="Mephisto"]  Don't kill them.
 </t>
   </si>
   <si>
@@ -4108,15 +4108,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mephisto"]  Devils, I’ll give you bodies that know no pain. Let them go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We’re a lot tougher than your herd.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mephisto"]  I’ll share my life with you. And you’ll really fight forever, a tireless fight.
+    <t xml:space="preserve">[name="Mephisto"]  Devils, I'll give you bodies that know no pain. Let them go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We're a lot tougher than your herd.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mephisto"]  I'll share my life with you. And you'll really fight forever, a tireless fight.
 </t>
   </si>
   <si>
@@ -4124,7 +4124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  But if we let them go, my people have to watch them. We’re not about to disobey Talulah now.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  But if we let them go, my people have to watch them. We're not about to disobey Talulah now.
 </t>
   </si>
   <si>
@@ -4136,7 +4136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  (Why would he save us...? Is this part of Talulah’s plot?)
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  (Why would he save us...? Is this part of Talulah's plot?)
 </t>
   </si>
   <si>
@@ -4164,7 +4164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mephisto"]  Yes, yes. I can’t sing anymore.
+    <t xml:space="preserve">[name="Mephisto"]  Yes, yes. I can't sing anymore.
 </t>
   </si>
   <si>
@@ -4172,11 +4172,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mephisto"]  It ought to be a lullaby, yes? I don’t remember who taught it to me... I’ve forgotten.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mephisto"]  It’s just, someone in my dreams was humming it.
+    <t xml:space="preserve">[name="Mephisto"]  It ought to be a lullaby, yes? I don't remember who taught it to me... I've forgotten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mephisto"]  It's just, someone in my dreams was humming it.
 </t>
   </si>
   <si>
@@ -4244,27 +4244,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  I’m not bawling!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Fine, fine. But you’re right in front of the door to L.G.D. Headquarters.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Probably don’t want other people seeing you cry, huh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Swire"]  N... Nobody’s here anyway!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  How about this? I’ll sit on the steps in front of you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I’m big enough. Nobody’ll see you cry if I’m in the way.
+    <t xml:space="preserve">[name="Swire"]  I'm not bawling!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Fine, fine. But you're right in front of the door to L.G.D. Headquarters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Probably don't want other people seeing you cry, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Swire"]  N... Nobody's here anyway!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  How about this? I'll sit on the steps in front of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I'm big enough. Nobody'll see you cry if I'm in the way.
 </t>
   </si>
   <si>
@@ -4276,11 +4276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I mean both of us, Missy. We both blew it, didn’t we?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Swire"]  What do I care...? I don’t care where she went!
+    <t xml:space="preserve">[name="Hoshiguma"]  I mean both of us, Missy. We both blew it, didn't we?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Swire"]  What do I care...? I don't care where she went!
 </t>
   </si>
   <si>
@@ -4292,7 +4292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Hey, no hitting. You’re going to hit me no matter what I say, huh? 
+    <t xml:space="preserve">[name="Hoshiguma"]  Hey, no hitting. You're going to hit me no matter what I say, huh? 
 </t>
   </si>
   <si>
@@ -4308,11 +4308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  It’s you...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I’m finally... going home...
+    <t xml:space="preserve">[name="Patriot"]  It's you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I'm finally... going home...
 </t>
   </si>
   <si>
@@ -4328,7 +4328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  How... I, don’t need visions, don’t need, consolation!
+    <t xml:space="preserve">[name="Patriot"]  How... I, don't need visions, don't need, consolation!
 </t>
   </si>
   <si>
@@ -4348,7 +4348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  —You. Cautus. It’s you.
+    <t xml:space="preserve">[name="Patriot"]  —You. Cautus. It's you.
 </t>
   </si>
   <si>
@@ -4388,7 +4388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Amiya?! You can’t...?!
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya?! You can't...?!
 </t>
   </si>
   <si>
@@ -4408,11 +4408,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I just, I only... Mr. Patriot, I didn’t mean to... I didn’t want...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...The end of your life... it shouldn’t be so tragic!
+    <t xml:space="preserve">[name="Amiya"]  I just, I only... Mr. Patriot, I didn't mean to... I didn't want...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...The end of your life... it shouldn't be so tragic!
 </t>
   </si>
   <si>
@@ -4424,7 +4424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I don’t... I don’t want that... to be your end!
+    <t xml:space="preserve">[name="Amiya"]  I don't... I don't want that... to be your end!
 </t>
   </si>
   <si>
@@ -4444,7 +4444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  My end, is not, someone else’s, to give!
+    <t xml:space="preserve">[name="Patriot"]  My end, is not, someone else's, to give!
 </t>
   </si>
   <si>
@@ -4464,7 +4464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  It’s, enough.
+    <t xml:space="preserve">[name="Patriot"]  It's, enough.
 </t>
   </si>
   <si>
@@ -4480,7 +4480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I’m not a child! I’ve been in more battles than I can count!
+    <t xml:space="preserve">[name="Amiya"]  I'm not a child! I've been in more battles than I can count!
 </t>
   </si>
   <si>
@@ -4500,7 +4500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  Oripathy, slavers, our world... won’t even spare, a child.
+    <t xml:space="preserve">[name="Patriot"]  Oripathy, slavers, our world... won't even spare, a child.
 </t>
   </si>
   <si>
@@ -4548,7 +4548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  But you... Maybe you’re, different...
+    <t xml:space="preserve">[name="Patriot"]  But you... Maybe you're, different...
 </t>
   </si>
   <si>
@@ -4564,11 +4564,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I can’t do it alone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  But I’m not alone.
+    <t xml:space="preserve">[name="Amiya"]  I can't do it alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But I'm not alone.
 </t>
   </si>
   <si>
@@ -4596,7 +4596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It couldn’t be...
+    <t xml:space="preserve">It couldn't be...
 </t>
   </si>
   <si>
@@ -4620,7 +4620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Snow? Buldrokkas'tee’s cannibalization resonated with all the altars?! And what I just added... the Wendigos’ ressurection...!
+    <t xml:space="preserve">[name="Kal'tsit"]  Snow? Buldrokkas'tee's cannibalization resonated with all the altars?! And what I just added... the Wendigos' ressurection...!
 </t>
   </si>
   <si>
@@ -4668,7 +4668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Patriot! Don’t believe the prophecy! It’s just a physiological side effect of the Originium Arts!
+    <t xml:space="preserve">[name="Kal'tsit"]  Patriot! Don't believe the prophecy! It's just a physiological side effect of the Originium Arts!
 </t>
   </si>
   <si>
@@ -4688,7 +4688,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  The young, King of Sarkaz…
+    <t xml:space="preserve">[name="Patriot"]  The young, King of Sarkaz...
 </t>
   </si>
   <si>
@@ -4732,7 +4732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The Cautus girl does not flinch. The shadow of death sweeps upon her smoke-blackened face. She does not move. She does not scream. She only stares directly into Patriot’s eyes.
+    <t xml:space="preserve">The Cautus girl does not flinch. The shadow of death sweeps upon her smoke-blackened face. She does not move. She does not scream. She only stares directly into Patriot's eyes.
 </t>
   </si>
   <si>
@@ -4740,7 +4740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">At the same time, heavy black blades and shimmering beams of ominous energy pierce swiftly into the giant’s immortal body. Still, he remains unshaken.
+    <t xml:space="preserve">At the same time, heavy black blades and shimmering beams of ominous energy pierce swiftly into the giant's immortal body. Still, he remains unshaken.
 </t>
   </si>
   <si>
@@ -4768,7 +4768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Having never taken a single step backward, unwavering for even a single second, in the end, death put a stop to the Patriot’s lifelong advance.
+    <t xml:space="preserve">Having never taken a single step backward, unwavering for even a single second, in the end, death put a stop to the Patriot's lifelong advance.
 </t>
   </si>
   <si>
